--- a/ConvertedEqual/District of Columbia_Converted.xlsx
+++ b/ConvertedEqual/District of Columbia_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="280">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -819,6 +819,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1216,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE221"/>
+  <dimension ref="A1:AE233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1407,6 +1443,9 @@
       <c r="L3" s="2">
         <v>43920</v>
       </c>
+      <c r="M3" s="2">
+        <v>43920</v>
+      </c>
       <c r="N3" s="2">
         <v>43915</v>
       </c>
@@ -1611,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1629,7 +1668,7 @@
         <v>0.5</v>
       </c>
       <c r="AE7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -2869,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2964,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -3059,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -3154,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>0.3230769230769231</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -3249,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -3344,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -3439,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -3534,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -3629,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -3724,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -3819,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -3914,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AE32">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -4009,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="AE33">
-        <v>0.5384615384615385</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -4104,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="AE34">
-        <v>0.5384615384615385</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -4199,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="AE35">
-        <v>0.5384615384615385</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -4294,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="AE36">
-        <v>0.5384615384615385</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -4389,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="AE37">
-        <v>0.5384615384615385</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -4430,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -4484,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="AE38">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -4525,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -4579,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="AE39">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -4620,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -4674,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="AE40">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -4715,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -4769,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="AE41">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -4810,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -4864,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="AE42">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -4905,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -4959,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="AE43">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -5000,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -5054,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="AE44">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -5095,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -5149,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="AE45">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -5190,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -5244,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="AE46">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -5285,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -5339,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="AE47">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -5380,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -5434,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="AE48">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -5475,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -5529,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="AE49">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -5570,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -5624,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="AE50">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -5665,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -5719,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="AE51">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -5760,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -5814,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="AE52">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -5855,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -5909,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="AE53">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -5950,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -6004,7 +6043,7 @@
         <v>1</v>
       </c>
       <c r="AE54">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -6045,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -6099,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="AE55">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -6140,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -6194,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="AE56">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -6235,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -6289,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="AE57">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -6330,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -6384,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="AE58">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -6425,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -6479,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="AE59">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -6520,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -6574,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="AE60">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -6615,7 +6654,7 @@
         <v>1</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -6669,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="AE61">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -6710,7 +6749,7 @@
         <v>1</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -6764,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="AE62">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -6805,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -6859,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="AE63">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -6900,7 +6939,7 @@
         <v>1</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -6954,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AE64">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -6995,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -7049,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="AE65">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -7090,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -7144,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="AE66">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -7185,7 +7224,7 @@
         <v>1</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -7239,7 +7278,7 @@
         <v>1</v>
       </c>
       <c r="AE67">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -7280,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -7334,7 +7373,7 @@
         <v>1</v>
       </c>
       <c r="AE68">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -7375,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -7429,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="AE69">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -7470,7 +7509,7 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -7524,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="AE70">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -7565,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -7619,7 +7658,7 @@
         <v>1</v>
       </c>
       <c r="AE71">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -7660,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -7714,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="AE72">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -7755,7 +7794,7 @@
         <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -7809,7 +7848,7 @@
         <v>1</v>
       </c>
       <c r="AE73">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -7850,7 +7889,7 @@
         <v>1</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -7904,7 +7943,7 @@
         <v>1</v>
       </c>
       <c r="AE74">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -7945,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -7999,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="AE75">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="76" spans="1:31">
@@ -8040,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -8094,7 +8133,7 @@
         <v>1</v>
       </c>
       <c r="AE76">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="77" spans="1:31">
@@ -8135,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -8189,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="AE77">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="78" spans="1:31">
@@ -8230,7 +8269,7 @@
         <v>1</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -8284,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="AE78">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="79" spans="1:31">
@@ -8325,7 +8364,7 @@
         <v>1</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -8379,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="AE79">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="80" spans="1:31">
@@ -8420,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -8474,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="AE80">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="81" spans="1:31">
@@ -8515,7 +8554,7 @@
         <v>1</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -8569,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="AE81">
-        <v>0.8307692307692308</v>
+        <v>0.8333333333333335</v>
       </c>
     </row>
     <row r="82" spans="1:31">
@@ -8610,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -8664,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="AE82">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="83" spans="1:31">
@@ -8705,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -8759,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="AE83">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="84" spans="1:31">
@@ -8800,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -8854,7 +8893,7 @@
         <v>1</v>
       </c>
       <c r="AE84">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="85" spans="1:31">
@@ -8895,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -8949,7 +8988,7 @@
         <v>1</v>
       </c>
       <c r="AE85">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="86" spans="1:31">
@@ -8990,7 +9029,7 @@
         <v>1</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -9044,7 +9083,7 @@
         <v>1</v>
       </c>
       <c r="AE86">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="87" spans="1:31">
@@ -9085,7 +9124,7 @@
         <v>1</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -9139,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="AE87">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="88" spans="1:31">
@@ -9180,7 +9219,7 @@
         <v>1</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -9234,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="AE88">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="89" spans="1:31">
@@ -9275,7 +9314,7 @@
         <v>1</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -9329,7 +9368,7 @@
         <v>1</v>
       </c>
       <c r="AE89">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="90" spans="1:31">
@@ -9370,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -9424,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="AE90">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="91" spans="1:31">
@@ -9465,7 +9504,7 @@
         <v>1</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -9519,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="AE91">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="92" spans="1:31">
@@ -9560,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -9614,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="AE92">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="93" spans="1:31">
@@ -9655,7 +9694,7 @@
         <v>1</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -9709,7 +9748,7 @@
         <v>1</v>
       </c>
       <c r="AE93">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="94" spans="1:31">
@@ -9750,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -9804,7 +9843,7 @@
         <v>1</v>
       </c>
       <c r="AE94">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="95" spans="1:31">
@@ -9845,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -9899,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="AE95">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="96" spans="1:31">
@@ -9940,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -9994,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="AE96">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="97" spans="1:31">
@@ -10035,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -10089,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="AE97">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="98" spans="1:31">
@@ -10130,7 +10169,7 @@
         <v>1</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -10184,7 +10223,7 @@
         <v>1</v>
       </c>
       <c r="AE98">
-        <v>0.9076923076923078</v>
+        <v>0.9166666666666669</v>
       </c>
     </row>
     <row r="99" spans="1:31">
@@ -10225,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -10279,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="AE99">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="100" spans="1:31">
@@ -10320,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -10374,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="AE100">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="101" spans="1:31">
@@ -10415,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -10469,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="AE101">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="102" spans="1:31">
@@ -10510,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -10564,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="AE102">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="103" spans="1:31">
@@ -10605,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -10659,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="AE103">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="104" spans="1:31">
@@ -10700,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -10754,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="AE104">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="105" spans="1:31">
@@ -10795,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -10849,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="AE105">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="106" spans="1:31">
@@ -10890,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -10944,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="AE106">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="107" spans="1:31">
@@ -10985,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -11039,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="AE107">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="108" spans="1:31">
@@ -11080,7 +11119,7 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -11134,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="AE108">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="109" spans="1:31">
@@ -11175,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -11229,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="AE109">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="110" spans="1:31">
@@ -11270,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -11324,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="AE110">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="111" spans="1:31">
@@ -11365,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -11419,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="AE111">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="112" spans="1:31">
@@ -11460,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -11514,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="AE112">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="113" spans="1:31">
@@ -11555,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -11609,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="AE113">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="114" spans="1:31">
@@ -11650,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -11704,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="AE114">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="115" spans="1:31">
@@ -11745,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -11799,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="AE115">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="116" spans="1:31">
@@ -11840,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -11894,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="AE116">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="117" spans="1:31">
@@ -11935,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -11989,7 +12028,7 @@
         <v>0</v>
       </c>
       <c r="AE117">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="118" spans="1:31">
@@ -12030,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -12084,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="AE118">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="119" spans="1:31">
@@ -12125,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -12179,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="AE119">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="120" spans="1:31">
@@ -12220,7 +12259,7 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -12274,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="AE120">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="121" spans="1:31">
@@ -12315,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -12369,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AE121">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="122" spans="1:31">
@@ -12410,7 +12449,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -12464,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="AE122">
-        <v>0.6615384615384616</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="123" spans="1:31">
@@ -12505,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -12559,7 +12598,7 @@
         <v>0</v>
       </c>
       <c r="AE123">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:31">
@@ -12600,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -12654,7 +12693,7 @@
         <v>0</v>
       </c>
       <c r="AE124">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:31">
@@ -12695,7 +12734,7 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -12749,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="AE125">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="126" spans="1:31">
@@ -12790,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -12844,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="AE126">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:31">
@@ -12885,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -12939,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="AE127">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:31">
@@ -12980,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -13034,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="AE128">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="129" spans="1:31">
@@ -13075,7 +13114,7 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -13129,7 +13168,7 @@
         <v>0</v>
       </c>
       <c r="AE129">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:31">
@@ -13170,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -13224,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="AE130">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="131" spans="1:31">
@@ -13265,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -13319,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="AE131">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="132" spans="1:31">
@@ -13360,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -13414,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="AE132">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="133" spans="1:31">
@@ -13455,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -13509,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="AE133">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="134" spans="1:31">
@@ -13550,7 +13589,7 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -13604,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="AE134">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:31">
@@ -13645,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -13699,7 +13738,7 @@
         <v>0</v>
       </c>
       <c r="AE135">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="136" spans="1:31">
@@ -13740,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -13794,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="AE136">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="137" spans="1:31">
@@ -13835,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -13889,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="AE137">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:31">
@@ -13930,7 +13969,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -13984,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="AE138">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="139" spans="1:31">
@@ -14025,7 +14064,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -14079,7 +14118,7 @@
         <v>0</v>
       </c>
       <c r="AE139">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="140" spans="1:31">
@@ -14120,7 +14159,7 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -14174,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="AE140">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="141" spans="1:31">
@@ -14215,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -14269,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="AE141">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="142" spans="1:31">
@@ -14310,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -14364,7 +14403,7 @@
         <v>0</v>
       </c>
       <c r="AE142">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="143" spans="1:31">
@@ -14405,7 +14444,7 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -14459,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="AE143">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="144" spans="1:31">
@@ -14500,7 +14539,7 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -14554,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="AE144">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="145" spans="1:31">
@@ -14595,7 +14634,7 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -14649,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="AE145">
-        <v>0.4615384615384616</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="146" spans="1:31">
@@ -14744,7 +14783,7 @@
         <v>0</v>
       </c>
       <c r="AE146">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="147" spans="1:31">
@@ -14839,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="AE147">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="148" spans="1:31">
@@ -14934,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="AE148">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="149" spans="1:31">
@@ -15029,7 +15068,7 @@
         <v>0</v>
       </c>
       <c r="AE149">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:31">
@@ -15124,7 +15163,7 @@
         <v>0</v>
       </c>
       <c r="AE150">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:31">
@@ -15219,7 +15258,7 @@
         <v>0</v>
       </c>
       <c r="AE151">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:31">
@@ -15314,7 +15353,7 @@
         <v>0</v>
       </c>
       <c r="AE152">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:31">
@@ -15409,7 +15448,7 @@
         <v>0</v>
       </c>
       <c r="AE153">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="154" spans="1:31">
@@ -15504,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="AE154">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="155" spans="1:31">
@@ -15599,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="AE155">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="156" spans="1:31">
@@ -15694,7 +15733,7 @@
         <v>0</v>
       </c>
       <c r="AE156">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:31">
@@ -15789,7 +15828,7 @@
         <v>0</v>
       </c>
       <c r="AE157">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="158" spans="1:31">
@@ -15884,7 +15923,7 @@
         <v>0</v>
       </c>
       <c r="AE158">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:31">
@@ -15979,7 +16018,7 @@
         <v>0</v>
       </c>
       <c r="AE159">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="160" spans="1:31">
@@ -16074,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="AE160">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:31">
@@ -16169,7 +16208,7 @@
         <v>0</v>
       </c>
       <c r="AE161">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:31">
@@ -16264,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="AE162">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="163" spans="1:31">
@@ -16359,7 +16398,7 @@
         <v>0</v>
       </c>
       <c r="AE163">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="164" spans="1:31">
@@ -16454,7 +16493,7 @@
         <v>0</v>
       </c>
       <c r="AE164">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:31">
@@ -16549,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="AE165">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:31">
@@ -16644,7 +16683,7 @@
         <v>0</v>
       </c>
       <c r="AE166">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:31">
@@ -16739,7 +16778,7 @@
         <v>0</v>
       </c>
       <c r="AE167">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:31">
@@ -16834,7 +16873,7 @@
         <v>0</v>
       </c>
       <c r="AE168">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:31">
@@ -16929,7 +16968,7 @@
         <v>0</v>
       </c>
       <c r="AE169">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:31">
@@ -17024,7 +17063,7 @@
         <v>0</v>
       </c>
       <c r="AE170">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:31">
@@ -17119,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="AE171">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:31">
@@ -17214,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="AE172">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:31">
@@ -17309,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="AE173">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:31">
@@ -17404,7 +17443,7 @@
         <v>0</v>
       </c>
       <c r="AE174">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:31">
@@ -17499,7 +17538,7 @@
         <v>0</v>
       </c>
       <c r="AE175">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:31">
@@ -17594,7 +17633,7 @@
         <v>0</v>
       </c>
       <c r="AE176">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:31">
@@ -17689,7 +17728,7 @@
         <v>0</v>
       </c>
       <c r="AE177">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:31">
@@ -17784,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="AE178">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:31">
@@ -17879,7 +17918,7 @@
         <v>0</v>
       </c>
       <c r="AE179">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:31">
@@ -17974,7 +18013,7 @@
         <v>0</v>
       </c>
       <c r="AE180">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:31">
@@ -18069,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="AE181">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:31">
@@ -18164,7 +18203,7 @@
         <v>0</v>
       </c>
       <c r="AE182">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:31">
@@ -18259,7 +18298,7 @@
         <v>0</v>
       </c>
       <c r="AE183">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:31">
@@ -18354,7 +18393,7 @@
         <v>0</v>
       </c>
       <c r="AE184">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="185" spans="1:31">
@@ -18449,7 +18488,7 @@
         <v>0</v>
       </c>
       <c r="AE185">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="186" spans="1:31">
@@ -18544,7 +18583,7 @@
         <v>0</v>
       </c>
       <c r="AE186">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:31">
@@ -18639,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="AE187">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="188" spans="1:31">
@@ -18734,7 +18773,7 @@
         <v>0</v>
       </c>
       <c r="AE188">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:31">
@@ -18829,7 +18868,7 @@
         <v>0</v>
       </c>
       <c r="AE189">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:31">
@@ -18924,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="AE190">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:31">
@@ -19019,7 +19058,7 @@
         <v>0</v>
       </c>
       <c r="AE191">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:31">
@@ -19114,7 +19153,7 @@
         <v>0</v>
       </c>
       <c r="AE192">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="193" spans="1:31">
@@ -19209,7 +19248,7 @@
         <v>0</v>
       </c>
       <c r="AE193">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:31">
@@ -19304,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="AE194">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:31">
@@ -19399,7 +19438,7 @@
         <v>0</v>
       </c>
       <c r="AE195">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:31">
@@ -19494,7 +19533,7 @@
         <v>0</v>
       </c>
       <c r="AE196">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:31">
@@ -19589,7 +19628,7 @@
         <v>0</v>
       </c>
       <c r="AE197">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:31">
@@ -19684,7 +19723,7 @@
         <v>0</v>
       </c>
       <c r="AE198">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:31">
@@ -19779,7 +19818,7 @@
         <v>0</v>
       </c>
       <c r="AE199">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:31">
@@ -19874,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="AE200">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:31">
@@ -19969,7 +20008,7 @@
         <v>0</v>
       </c>
       <c r="AE201">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:31">
@@ -20064,7 +20103,7 @@
         <v>0</v>
       </c>
       <c r="AE202">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:31">
@@ -20159,7 +20198,7 @@
         <v>0</v>
       </c>
       <c r="AE203">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:31">
@@ -20254,7 +20293,7 @@
         <v>0</v>
       </c>
       <c r="AE204">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:31">
@@ -20349,7 +20388,7 @@
         <v>0</v>
       </c>
       <c r="AE205">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:31">
@@ -20444,7 +20483,7 @@
         <v>0</v>
       </c>
       <c r="AE206">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:31">
@@ -20539,7 +20578,7 @@
         <v>0</v>
       </c>
       <c r="AE207">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:31">
@@ -20634,7 +20673,7 @@
         <v>0</v>
       </c>
       <c r="AE208">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:31">
@@ -20729,7 +20768,7 @@
         <v>0</v>
       </c>
       <c r="AE209">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:31">
@@ -20824,7 +20863,7 @@
         <v>0</v>
       </c>
       <c r="AE210">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:31">
@@ -20919,7 +20958,7 @@
         <v>0</v>
       </c>
       <c r="AE211">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:31">
@@ -21014,7 +21053,7 @@
         <v>0</v>
       </c>
       <c r="AE212">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:31">
@@ -21109,7 +21148,7 @@
         <v>0</v>
       </c>
       <c r="AE213">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:31">
@@ -21204,7 +21243,7 @@
         <v>0</v>
       </c>
       <c r="AE214">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:31">
@@ -21299,7 +21338,7 @@
         <v>0</v>
       </c>
       <c r="AE215">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:31">
@@ -21394,7 +21433,7 @@
         <v>0</v>
       </c>
       <c r="AE216">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:31">
@@ -21489,7 +21528,7 @@
         <v>0</v>
       </c>
       <c r="AE217">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:31">
@@ -21584,7 +21623,7 @@
         <v>0</v>
       </c>
       <c r="AE218">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:31">
@@ -21679,7 +21718,7 @@
         <v>0</v>
       </c>
       <c r="AE219">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="220" spans="1:31">
@@ -21774,7 +21813,7 @@
         <v>0</v>
       </c>
       <c r="AE220">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="221" spans="1:31">
@@ -21869,7 +21908,1147 @@
         <v>0</v>
       </c>
       <c r="AE221">
-        <v>0.4615384615384616</v>
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:31">
+      <c r="A222" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>1</v>
+      </c>
+      <c r="Y222">
+        <v>1</v>
+      </c>
+      <c r="Z222">
+        <v>1</v>
+      </c>
+      <c r="AA222">
+        <v>1</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:31">
+      <c r="A223" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>1</v>
+      </c>
+      <c r="Y223">
+        <v>1</v>
+      </c>
+      <c r="Z223">
+        <v>1</v>
+      </c>
+      <c r="AA223">
+        <v>1</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:31">
+      <c r="A224" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>1</v>
+      </c>
+      <c r="Y224">
+        <v>1</v>
+      </c>
+      <c r="Z224">
+        <v>1</v>
+      </c>
+      <c r="AA224">
+        <v>1</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:31">
+      <c r="A225" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>1</v>
+      </c>
+      <c r="Y225">
+        <v>1</v>
+      </c>
+      <c r="Z225">
+        <v>1</v>
+      </c>
+      <c r="AA225">
+        <v>1</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:31">
+      <c r="A226" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>1</v>
+      </c>
+      <c r="Y226">
+        <v>1</v>
+      </c>
+      <c r="Z226">
+        <v>1</v>
+      </c>
+      <c r="AA226">
+        <v>1</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:31">
+      <c r="A227" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>1</v>
+      </c>
+      <c r="Y227">
+        <v>1</v>
+      </c>
+      <c r="Z227">
+        <v>1</v>
+      </c>
+      <c r="AA227">
+        <v>1</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:31">
+      <c r="A228" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>1</v>
+      </c>
+      <c r="Y228">
+        <v>1</v>
+      </c>
+      <c r="Z228">
+        <v>1</v>
+      </c>
+      <c r="AA228">
+        <v>1</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:31">
+      <c r="A229" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>1</v>
+      </c>
+      <c r="Y229">
+        <v>1</v>
+      </c>
+      <c r="Z229">
+        <v>1</v>
+      </c>
+      <c r="AA229">
+        <v>1</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:31">
+      <c r="A230" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>1</v>
+      </c>
+      <c r="Y230">
+        <v>1</v>
+      </c>
+      <c r="Z230">
+        <v>1</v>
+      </c>
+      <c r="AA230">
+        <v>1</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:31">
+      <c r="A231" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>1</v>
+      </c>
+      <c r="Y231">
+        <v>1</v>
+      </c>
+      <c r="Z231">
+        <v>1</v>
+      </c>
+      <c r="AA231">
+        <v>1</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:31">
+      <c r="A232" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>1</v>
+      </c>
+      <c r="Y232">
+        <v>1</v>
+      </c>
+      <c r="Z232">
+        <v>1</v>
+      </c>
+      <c r="AA232">
+        <v>1</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31">
+      <c r="A233" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>1</v>
+      </c>
+      <c r="Y233">
+        <v>1</v>
+      </c>
+      <c r="Z233">
+        <v>1</v>
+      </c>
+      <c r="AA233">
+        <v>1</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0.4166666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -22051,6 +23230,9 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
+      <c r="C13" s="2">
+        <v>43920</v>
+      </c>
       <c r="D13" s="2">
         <v>44027</v>
       </c>
